--- a/MAGUINAO, NIÑA FERMA.xlsx
+++ b/MAGUINAO, NIÑA FERMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B54F98-C523-49C4-A592-E322A18762CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE8B2A6-5263-497E-B664-2F70CCC31131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>PERIOD</t>
   </si>
@@ -186,6 +178,15 @@
   </si>
   <si>
     <t>11/30,12/1 - 4</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>11/22-26/2022</t>
   </si>
 </sst>
 </file>
@@ -855,7 +856,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K63" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K64" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1184,10 +1185,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K63"/>
+  <dimension ref="A2:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,7 +1349,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1358,7 +1359,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -1473,7 +1474,9 @@
       <c r="A15" s="24">
         <v>44835</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="C15" s="14">
         <v>1.25</v>
       </c>
@@ -1484,10 +1487,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="21"/>
+      <c r="K15" s="40">
+        <v>44858</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
@@ -1516,35 +1523,41 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
-        <v>44896</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D17" s="12"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="12">
+        <v>5</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G17" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="9"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="21" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="24">
+        <v>44896</v>
+      </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G18" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="9"/>
@@ -1552,7 +1565,9 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="39" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
       <c r="D19" s="12"/>
@@ -1568,15 +1583,19 @@
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="24">
+        <v>44927</v>
+      </c>
       <c r="B20" s="12"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="E20" s="9"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G20" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="9"/>
@@ -1617,35 +1636,35 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="16"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="21"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
@@ -2001,19 +2020,19 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
-      <c r="B47" s="13"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="13"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="16"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
@@ -2026,10 +2045,10 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="21"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="16"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
@@ -2186,26 +2205,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="16"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="21"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
-      <c r="B59" s="12"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="12"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="21"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="16"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
@@ -2257,19 +2276,35 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
-      <c r="B63" s="13"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="13"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="12"/>
       <c r="G63" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="16"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="24"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
